--- a/data/2024_ExampleDataSet_with_errors.xlsx
+++ b/data/2024_ExampleDataSet_with_errors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAran\Desktop\Files\duty\Uniss\EnhanceFAIRness_spreadsheet_to_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D59FEC-C1B3-4D81-A25D-3B588E6026DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E003792-3D4C-46CD-BFD9-61818CE85EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_A" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Attribute_A1</t>
   </si>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +564,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445CD079-0355-489A-B458-632F21200A8F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1132,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7025,7 +7027,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7073,7 +7075,7 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("unique(KEYS!B2:B1000)"),"Attribute_A1")</f>
         <v>Attribute_A1</v>
       </c>
@@ -7085,7 +7087,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Attribute_A2")</f>
         <v>Attribute_A2</v>
       </c>
@@ -7097,124 +7099,84 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Attribute_B1")</f>
         <v>Attribute_B1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="6" t="str">
+    <row r="6" spans="1:26">
+      <c r="A6" s="24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Attribute_B2")</f>
         <v>Attribute_B2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Table")</f>
-        <v>Table</v>
-      </c>
-    </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Attribute")</f>
-        <v>Attribute</v>
-      </c>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPK")</f>
-        <v>isPK</v>
-      </c>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isFK")</f>
-        <v>isFK</v>
-      </c>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ReferenceTable")</f>
-        <v>ReferenceTable</v>
-      </c>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Blank1")</f>
-        <v>Blank1</v>
-      </c>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Blank2")</f>
-        <v>Blank2</v>
-      </c>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INSTRUCTIONS")</f>
-        <v>INSTRUCTIONS</v>
-      </c>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key")</f>
-        <v>key</v>
-      </c>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value")</f>
-        <v>value</v>
-      </c>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Caption")</f>
-        <v>Caption</v>
-      </c>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AttType")</f>
-        <v>AttType</v>
-      </c>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unit")</f>
-        <v>Unit</v>
-      </c>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
